--- a/data/xlsx/02072019.xlsx
+++ b/data/xlsx/02072019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\tiffany\susa\web-dev\police-logs\cleaned\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36D1D35E-1FF7-4BDC-A88D-4146B45A115B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{947509CA-43E3-481B-A19A-B47D09EA120D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{216EDB2D-108E-494E-BBC0-7FAE50020F7E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{8EF22F3E-78D7-45AB-BCCA-78E683F537B7}"/>
   </bookViews>
   <sheets>
     <sheet name="02072019" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,12 +424,18 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +445,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -482,11 +494,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,11 +815,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DC622F-633B-4DCD-98D5-8EBA924088CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD20FC7-E678-4B7C-B640-7029878207BF}">
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +988,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43503</v>
       </c>
@@ -989,18 +1004,18 @@
       <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
+      <c r="F7" s="6">
+        <v>37.868048999999999</v>
+      </c>
+      <c r="G7" s="6">
+        <v>-122.26621900000001</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43503</v>
       </c>
@@ -1016,18 +1031,18 @@
       <c r="E8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
+      <c r="F8" s="6">
+        <v>37.868136999999997</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-122.254963</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43503</v>
       </c>
@@ -1043,18 +1058,18 @@
       <c r="E9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
+      <c r="F9" s="6">
+        <v>37.86918</v>
+      </c>
+      <c r="G9" s="6">
+        <v>-122.260222</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43503</v>
       </c>
@@ -1070,11 +1085,11 @@
       <c r="E10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
+      <c r="F10" s="6">
+        <v>37.870815</v>
+      </c>
+      <c r="G10" s="6">
+        <v>-122.254698</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>12</v>
@@ -1097,11 +1112,11 @@
       <c r="E11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
+      <c r="F11" s="6">
+        <v>37.870033999999997</v>
+      </c>
+      <c r="G11" s="6">
+        <v>-122.257988</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>38</v>
@@ -1151,10 +1166,10 @@
       <c r="E13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>37.875020999999997</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>-122.260559</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -1162,7 +1177,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43503</v>
       </c>
@@ -1178,11 +1193,11 @@
       <c r="E14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
+      <c r="F14" s="6">
+        <v>37.868572</v>
+      </c>
+      <c r="G14" s="6">
+        <v>-122.262722</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>12</v>
@@ -1205,11 +1220,11 @@
       <c r="E15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
+      <c r="F15" s="6">
+        <v>37.866520999999999</v>
+      </c>
+      <c r="G15" s="6">
+        <v>-122.256304</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>12</v>
@@ -1270,7 +1285,7 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43503</v>
       </c>
@@ -1286,18 +1301,18 @@
       <c r="E18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
+      <c r="F18" s="6">
+        <v>37.866822999999997</v>
+      </c>
+      <c r="G18" s="6">
+        <v>-122.251681</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43503</v>
       </c>
@@ -1313,18 +1328,18 @@
       <c r="E19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
+      <c r="F19" s="6">
+        <v>37.875022999999999</v>
+      </c>
+      <c r="G19" s="8">
+        <v>-122.25967199999999</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43503</v>
       </c>
@@ -1340,11 +1355,11 @@
       <c r="E20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
+      <c r="F20" s="6">
+        <v>37.866759999999999</v>
+      </c>
+      <c r="G20" s="6">
+        <v>-122.25416199999999</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>12</v>
@@ -1367,11 +1382,11 @@
       <c r="E21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
+      <c r="F21" s="6">
+        <v>37.865039000000003</v>
+      </c>
+      <c r="G21" s="6">
+        <v>-122.249647</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>63</v>
@@ -1406,7 +1421,7 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43503</v>
       </c>
@@ -1422,11 +1437,11 @@
       <c r="E23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
+      <c r="F23" s="6">
+        <v>37.869768000000001</v>
+      </c>
+      <c r="G23" s="6">
+        <v>-122.25389300000001</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>12</v>
@@ -1449,11 +1464,11 @@
       <c r="E24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
+      <c r="F24" s="6">
+        <v>37.885254000000003</v>
+      </c>
+      <c r="G24" s="6">
+        <v>-122.30268100000001</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>74</v>
@@ -1487,7 +1502,7 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43503</v>
       </c>
@@ -1504,17 +1519,17 @@
         <v>77</v>
       </c>
       <c r="F26" s="7">
-        <v>0</v>
+        <v>37.868572</v>
       </c>
       <c r="G26" s="7">
-        <v>0</v>
+        <v>-122.262722</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43503</v>
       </c>
@@ -1530,10 +1545,10 @@
       <c r="E27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="9">
         <v>0</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="9">
         <v>0</v>
       </c>
       <c r="H27" s="5" t="s">
@@ -1541,7 +1556,7 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>43503</v>
       </c>
@@ -1558,17 +1573,17 @@
         <v>83</v>
       </c>
       <c r="F28" s="7">
-        <v>0</v>
+        <v>37.865806999999997</v>
       </c>
       <c r="G28" s="7">
-        <v>0</v>
+        <v>-122.267504</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43503</v>
       </c>
@@ -1584,11 +1599,11 @@
       <c r="E29" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
+      <c r="F29" s="6">
+        <v>37.868572</v>
+      </c>
+      <c r="G29" s="6">
+        <v>-122.262722</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>12</v>
@@ -1611,11 +1626,11 @@
       <c r="E30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0</v>
+      <c r="F30" s="6">
+        <v>37.872793999999999</v>
+      </c>
+      <c r="G30" s="6">
+        <v>-122.260716</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>88</v>
@@ -1649,7 +1664,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43503</v>
       </c>
@@ -1665,18 +1680,18 @@
       <c r="E32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="7">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0</v>
+      <c r="F32" s="6">
+        <v>37.871785000000003</v>
+      </c>
+      <c r="G32" s="6">
+        <v>-122.265027</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>94</v>
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>43503</v>
       </c>
@@ -1692,18 +1707,18 @@
       <c r="E33" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0</v>
+      <c r="F33" s="6">
+        <v>37.868642000000001</v>
+      </c>
+      <c r="G33" s="6">
+        <v>-122.259063</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43503</v>
       </c>
@@ -1720,10 +1735,10 @@
         <v>98</v>
       </c>
       <c r="F34" s="7">
-        <v>0</v>
+        <v>37.867705000000001</v>
       </c>
       <c r="G34" s="7">
-        <v>0</v>
+        <v>-122.264292</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>12</v>
@@ -1746,11 +1761,11 @@
       <c r="E35" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="7">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7">
-        <v>0</v>
+      <c r="F35" s="6">
+        <v>37.864553999999998</v>
+      </c>
+      <c r="G35" s="6">
+        <v>-122.263006</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>12</v>
@@ -1800,11 +1815,11 @@
       <c r="E37" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="7">
-        <v>0</v>
-      </c>
-      <c r="G37" s="7">
-        <v>0</v>
+      <c r="F37" s="6">
+        <v>37.871803999999997</v>
+      </c>
+      <c r="G37" s="6">
+        <v>-122.27072800000001</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>12</v>
@@ -1838,7 +1853,7 @@
       </c>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>43503</v>
       </c>
@@ -1854,18 +1869,18 @@
       <c r="E39" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="7">
-        <v>0</v>
-      </c>
-      <c r="G39" s="7">
-        <v>0</v>
+      <c r="F39" s="6">
+        <v>37.868997999999998</v>
+      </c>
+      <c r="G39" s="6">
+        <v>-122.26482900000001</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>43503</v>
       </c>
@@ -1881,17 +1896,17 @@
       <c r="E40" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F40" s="7">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7">
-        <v>0</v>
+      <c r="F40" s="6">
+        <v>37.871785000000003</v>
+      </c>
+      <c r="G40" s="6">
+        <v>-122.265027</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43503</v>
       </c>
@@ -1907,11 +1922,11 @@
       <c r="E41" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F41" s="7">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7">
-        <v>0</v>
+      <c r="F41" s="6">
+        <v>37.870016999999997</v>
+      </c>
+      <c r="G41" s="6">
+        <v>-122.265091</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>116</v>
@@ -1926,7 +1941,7 @@
       <c r="A43" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
+      <c r="A45" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
